--- a/Code/Results/Cases/Case_0_117/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_117/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.200964397405866</v>
+        <v>4.918926664783237</v>
       </c>
       <c r="D2">
-        <v>4.152324910995191</v>
+        <v>4.632121578177307</v>
       </c>
       <c r="E2">
-        <v>10.43375586147953</v>
+        <v>10.80326495706875</v>
       </c>
       <c r="F2">
-        <v>18.31693836415246</v>
+        <v>23.53882848165438</v>
       </c>
       <c r="G2">
-        <v>2.064694945732149</v>
+        <v>3.622697183321949</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.07328454233971</v>
+        <v>13.42095396178596</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.89023420113517</v>
+        <v>15.32938006460495</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.18006382580604</v>
+        <v>21.00210877370274</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.699493999168091</v>
+        <v>4.749674754588987</v>
       </c>
       <c r="D3">
-        <v>4.050926946780592</v>
+        <v>4.600420658625072</v>
       </c>
       <c r="E3">
-        <v>9.91473158205739</v>
+        <v>10.75119476843116</v>
       </c>
       <c r="F3">
-        <v>17.79451850573281</v>
+        <v>23.58216135031835</v>
       </c>
       <c r="G3">
-        <v>2.071303079260586</v>
+        <v>3.625106964426211</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.75638118055285</v>
+        <v>12.82613224543138</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.65110400293137</v>
+        <v>14.99886812371665</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.04519623440545</v>
+        <v>21.10102617189822</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.374724043415106</v>
+        <v>4.644144176141034</v>
       </c>
       <c r="D4">
-        <v>3.987601436056728</v>
+        <v>4.580868679788154</v>
       </c>
       <c r="E4">
-        <v>9.600052310076974</v>
+        <v>10.72424419551092</v>
       </c>
       <c r="F4">
-        <v>17.49661523523358</v>
+        <v>23.61837789450059</v>
       </c>
       <c r="G4">
-        <v>2.075469279652786</v>
+        <v>3.626663397786804</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.90359769753626</v>
+        <v>12.44688858813911</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.84954700325587</v>
+        <v>14.79515126053738</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.98661850939946</v>
+        <v>21.16912609868557</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.238095857159943</v>
+        <v>4.600812301464723</v>
       </c>
       <c r="D5">
-        <v>3.961549770978744</v>
+        <v>4.572883276019547</v>
       </c>
       <c r="E5">
-        <v>9.472979697351427</v>
+        <v>10.71452950512096</v>
       </c>
       <c r="F5">
-        <v>17.38098484062203</v>
+        <v>23.63553892435155</v>
       </c>
       <c r="G5">
-        <v>2.077195434642078</v>
+        <v>3.627317038679304</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.54497663136207</v>
+        <v>12.28901148792713</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.51260496000513</v>
+        <v>14.71205578184049</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.96856919308166</v>
+        <v>21.19871737711881</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.215149066955008</v>
+        <v>4.593599687212905</v>
       </c>
       <c r="D6">
-        <v>3.957209740370015</v>
+        <v>4.571556351914058</v>
       </c>
       <c r="E6">
-        <v>9.451954483221387</v>
+        <v>10.71299307096631</v>
       </c>
       <c r="F6">
-        <v>17.36213282393608</v>
+        <v>23.63853316263091</v>
       </c>
       <c r="G6">
-        <v>2.077483805634167</v>
+        <v>3.627426747771496</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.48475790665671</v>
+        <v>12.26260105423343</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.45603234431321</v>
+        <v>14.69825654595316</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.96591540539884</v>
+        <v>21.20374176833704</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.372898818124431</v>
+        <v>4.643561005888587</v>
       </c>
       <c r="D7">
-        <v>3.98725105949103</v>
+        <v>4.58076105246634</v>
       </c>
       <c r="E7">
-        <v>9.59833364031384</v>
+        <v>10.72410804104096</v>
       </c>
       <c r="F7">
-        <v>17.49503244705718</v>
+        <v>23.61859962637516</v>
       </c>
       <c r="G7">
-        <v>2.075492442880253</v>
+        <v>3.626672134454969</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.89880614240563</v>
+        <v>12.44477261858557</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.84504466337421</v>
+        <v>14.79403076928016</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.98635189205162</v>
+        <v>21.16951774274654</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.031532702875348</v>
+        <v>4.860947103975855</v>
       </c>
       <c r="D8">
-        <v>4.117597030394573</v>
+        <v>4.621211770492003</v>
       </c>
       <c r="E8">
-        <v>10.25405124105688</v>
+        <v>10.78427313721115</v>
       </c>
       <c r="F8">
-        <v>18.13208121192462</v>
+        <v>23.55176718608135</v>
       </c>
       <c r="G8">
-        <v>2.066951499379472</v>
+        <v>3.623512171565334</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.6283884586668</v>
+        <v>13.21887710969062</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.47139429720617</v>
+        <v>15.21565095371606</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.12837536800182</v>
+        <v>21.03468003203171</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.191211600407316</v>
+        <v>5.271389556882198</v>
       </c>
       <c r="D9">
-        <v>4.363870876903667</v>
+        <v>4.699658419989746</v>
       </c>
       <c r="E9">
-        <v>11.56619110049281</v>
+        <v>10.94172985881145</v>
       </c>
       <c r="F9">
-        <v>19.56088697899671</v>
+        <v>23.49750447914906</v>
       </c>
       <c r="G9">
-        <v>2.051015338636625</v>
+        <v>3.617922031815943</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.67012357079798</v>
+        <v>14.61847034035821</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.3409370648141</v>
+        <v>16.03128845998065</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.61009886778322</v>
+        <v>20.82921036248376</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.965597831879069</v>
+        <v>5.559597191190305</v>
       </c>
       <c r="D10">
-        <v>4.538116171636687</v>
+        <v>4.756515345664814</v>
       </c>
       <c r="E10">
-        <v>12.79910356537843</v>
+        <v>11.08081171865106</v>
       </c>
       <c r="F10">
-        <v>20.71685873013408</v>
+        <v>23.50507427341135</v>
       </c>
       <c r="G10">
-        <v>2.03972634249001</v>
+        <v>3.614180539860946</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.69391788402201</v>
+        <v>15.56658189321085</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.25992990322518</v>
+        <v>16.61741912546716</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.1010396884654</v>
+        <v>20.71487107904104</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.30167443992724</v>
+        <v>5.687159479792768</v>
       </c>
       <c r="D11">
-        <v>4.61576766450396</v>
+        <v>4.782160836239849</v>
       </c>
       <c r="E11">
-        <v>13.34980756607388</v>
+        <v>11.14897195344798</v>
       </c>
       <c r="F11">
-        <v>21.26510426760455</v>
+        <v>23.51890958102457</v>
       </c>
       <c r="G11">
-        <v>2.034663200644072</v>
+        <v>3.612556930349512</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.56961655162305</v>
+        <v>15.97921297757906</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.09330076259453</v>
+        <v>16.87998785734488</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.35642774007752</v>
+        <v>20.67094584886107</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.426665204985083</v>
+        <v>5.73490781169266</v>
       </c>
       <c r="D12">
-        <v>4.644929702784711</v>
+        <v>4.791836311045429</v>
       </c>
       <c r="E12">
-        <v>13.55637973166751</v>
+        <v>11.17546637424317</v>
       </c>
       <c r="F12">
-        <v>21.47588435089055</v>
+        <v>23.52564711352601</v>
       </c>
       <c r="G12">
-        <v>2.032754628134594</v>
+        <v>3.611953319751161</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.8948433551387</v>
+        <v>16.13269627475997</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.40331949793173</v>
+        <v>16.97873698098317</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.45790315972093</v>
+        <v>20.65548641313719</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.399846441562053</v>
+        <v>5.724649805316048</v>
       </c>
       <c r="D13">
-        <v>4.638660084896898</v>
+        <v>4.789754191681585</v>
       </c>
       <c r="E13">
-        <v>13.51197568709372</v>
+        <v>11.1697302574141</v>
       </c>
       <c r="F13">
-        <v>21.43034857928912</v>
+        <v>23.5241293817981</v>
       </c>
       <c r="G13">
-        <v>2.033165313271558</v>
+        <v>3.612082820262691</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.82508233745438</v>
+        <v>16.09976537387399</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.33679648346163</v>
+        <v>16.95750128264905</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.43583437218548</v>
+        <v>20.65876349069488</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.312002756767095</v>
+        <v>5.691099171355913</v>
       </c>
       <c r="D14">
-        <v>4.618171764163256</v>
+        <v>4.782957588339332</v>
       </c>
       <c r="E14">
-        <v>13.36684090784173</v>
+        <v>11.15113808460983</v>
       </c>
       <c r="F14">
-        <v>21.28238191331005</v>
+        <v>23.51943383607117</v>
       </c>
       <c r="G14">
-        <v>2.034506016361501</v>
+        <v>3.612507046521605</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.59650054113068</v>
+        <v>15.99189612326818</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.11891683119403</v>
+        <v>16.8881261582566</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.36467984710451</v>
+        <v>20.66965039976395</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.257901485633312</v>
+        <v>5.670474634610139</v>
       </c>
       <c r="D15">
-        <v>4.605590164632707</v>
+        <v>4.778789664816379</v>
       </c>
       <c r="E15">
-        <v>13.27769010101832</v>
+        <v>11.13983825022296</v>
       </c>
       <c r="F15">
-        <v>21.19215999262748</v>
+        <v>23.51675289870268</v>
       </c>
       <c r="G15">
-        <v>2.035328320559667</v>
+        <v>3.612768356094047</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.45565916275123</v>
+        <v>15.9254598863915</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.98473923171438</v>
+        <v>16.84554061855834</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.3217205713816</v>
+        <v>20.67647216659677</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.943313141503403</v>
+        <v>5.551185220660429</v>
       </c>
       <c r="D16">
-        <v>4.533008008128818</v>
+        <v>4.754834566365903</v>
       </c>
       <c r="E16">
-        <v>12.76283009213573</v>
+        <v>11.07645406948022</v>
       </c>
       <c r="F16">
-        <v>20.68147555554703</v>
+        <v>23.50437961073033</v>
       </c>
       <c r="G16">
-        <v>2.040058546299411</v>
+        <v>3.614288219248662</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.63579128098592</v>
+        <v>15.53923207700058</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.20468151976947</v>
+        <v>16.60016954090074</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.08500828535088</v>
+        <v>20.71790540484485</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.746213204206493</v>
+        <v>5.477061903567471</v>
       </c>
       <c r="D17">
-        <v>4.488059401222164</v>
+        <v>4.740079634362246</v>
       </c>
       <c r="E17">
-        <v>12.44331487226105</v>
+        <v>11.03880928456146</v>
       </c>
       <c r="F17">
-        <v>20.37388130984464</v>
+        <v>23.49945417121977</v>
       </c>
       <c r="G17">
-        <v>2.042977761385924</v>
+        <v>3.615240646420997</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.12137298213485</v>
+        <v>15.29744587946204</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.71609157652394</v>
+        <v>16.44853127516686</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.94812038702584</v>
+        <v>20.74540293755877</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.63131866033782</v>
+        <v>5.434096921471642</v>
       </c>
       <c r="D18">
-        <v>4.462054767519417</v>
+        <v>4.731572635293838</v>
       </c>
       <c r="E18">
-        <v>12.25814631746636</v>
+        <v>11.01761869764697</v>
       </c>
       <c r="F18">
-        <v>20.19907046598077</v>
+        <v>23.49759920391264</v>
       </c>
       <c r="G18">
-        <v>2.044663728054767</v>
+        <v>3.615795841635987</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.82125801092437</v>
+        <v>15.15662375227124</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.43133259564501</v>
+        <v>16.36093564015414</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.87239545151297</v>
+        <v>20.76197946796187</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.592153315106053</v>
+        <v>5.419494354352264</v>
       </c>
       <c r="D19">
-        <v>4.453224417508343</v>
+        <v>4.728688951564412</v>
       </c>
       <c r="E19">
-        <v>12.19520837830452</v>
+        <v>11.01052379429649</v>
       </c>
       <c r="F19">
-        <v>20.1402465533241</v>
+        <v>23.49713895916605</v>
       </c>
       <c r="G19">
-        <v>2.045235802727719</v>
+        <v>3.615985091314231</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.71891460237777</v>
+        <v>15.10864557761016</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.33427280537447</v>
+        <v>16.33121547037828</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.84726809086972</v>
+        <v>20.76772230036703</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.767352572276813</v>
+        <v>5.484987094290834</v>
       </c>
       <c r="D20">
-        <v>4.492860011577263</v>
+        <v>4.741652460636362</v>
       </c>
       <c r="E20">
-        <v>12.47747089785021</v>
+        <v>11.042768988803</v>
       </c>
       <c r="F20">
-        <v>20.40640735576157</v>
+        <v>23.49987723525186</v>
       </c>
       <c r="G20">
-        <v>2.042666302236106</v>
+        <v>3.615138495115949</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.17657147022116</v>
+        <v>15.32336654452438</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.76848845062659</v>
+        <v>16.46471318949694</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.96237969220679</v>
+        <v>20.74239696976741</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.337865842516367</v>
+        <v>5.700969262897684</v>
       </c>
       <c r="D21">
-        <v>4.624196346751737</v>
+        <v>4.78495492523827</v>
       </c>
       <c r="E21">
-        <v>13.40952264682096</v>
+        <v>11.15658067015173</v>
       </c>
       <c r="F21">
-        <v>21.32575751839589</v>
+        <v>23.52077234378723</v>
       </c>
       <c r="G21">
-        <v>2.034111996473559</v>
+        <v>3.612382137094257</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.66381303790223</v>
+        <v>16.02365576343253</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.18306316340902</v>
+        <v>16.90852249641674</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.38544916830408</v>
+        <v>20.66642070063103</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.697501743680455</v>
+        <v>5.838862989602039</v>
       </c>
       <c r="D22">
-        <v>4.708613221111081</v>
+        <v>4.813044229369414</v>
       </c>
       <c r="E22">
-        <v>14.00728786325539</v>
+        <v>11.2349373507616</v>
       </c>
       <c r="F22">
-        <v>21.94508543395265</v>
+        <v>23.54316268287199</v>
       </c>
       <c r="G22">
-        <v>2.028571259197898</v>
+        <v>3.610646039975129</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.5986626813903</v>
+        <v>16.46515248181339</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.07522847158232</v>
+        <v>17.19457450505397</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.68978733422263</v>
+        <v>20.62361411251164</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.506748590586277</v>
+        <v>5.765579213415601</v>
       </c>
       <c r="D23">
-        <v>4.663691114474684</v>
+        <v>4.798073226335869</v>
       </c>
       <c r="E23">
-        <v>13.68923740605375</v>
+        <v>11.19276029255049</v>
       </c>
       <c r="F23">
-        <v>21.61285770974728</v>
+        <v>23.53041257746754</v>
       </c>
       <c r="G23">
-        <v>2.031524470966117</v>
+        <v>3.611566668840496</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.10308509353082</v>
+        <v>16.23102307020686</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.60197507050693</v>
+        <v>17.04229930412242</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.52476205368924</v>
+        <v>20.64583066056408</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.757800386814191</v>
+        <v>5.481405203705764</v>
       </c>
       <c r="D24">
-        <v>4.490690162740917</v>
+        <v>4.740941460869917</v>
       </c>
       <c r="E24">
-        <v>12.46203356354433</v>
+        <v>11.04097739741174</v>
       </c>
       <c r="F24">
-        <v>20.39169600597462</v>
+        <v>23.49968292579795</v>
       </c>
       <c r="G24">
-        <v>2.04280708890035</v>
+        <v>3.615184653941297</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.15162984827048</v>
+        <v>15.31165346167035</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.74481186329017</v>
+        <v>16.45739863687119</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.95592380977736</v>
+        <v>20.74375357680246</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.891329321437566</v>
+        <v>5.162455552130699</v>
       </c>
       <c r="D25">
-        <v>4.298358671925586</v>
+        <v>4.678555562725144</v>
       </c>
       <c r="E25">
-        <v>11.20905739467062</v>
+        <v>10.89496671653174</v>
       </c>
       <c r="F25">
-        <v>19.15544208840329</v>
+        <v>23.50389081328594</v>
       </c>
       <c r="G25">
-        <v>2.055246995419408</v>
+        <v>3.619369811960744</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.8845357431203</v>
+        <v>14.25342701575302</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.59834049866338</v>
+        <v>15.81250386157653</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.45657173034011</v>
+        <v>20.87841275529016</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_117/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_117/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.918926664783237</v>
+        <v>7.200964397405906</v>
       </c>
       <c r="D2">
-        <v>4.632121578177307</v>
+        <v>4.15232491099535</v>
       </c>
       <c r="E2">
-        <v>10.80326495706875</v>
+        <v>10.43375586147952</v>
       </c>
       <c r="F2">
-        <v>23.53882848165438</v>
+        <v>18.31693836415245</v>
       </c>
       <c r="G2">
-        <v>3.622697183321949</v>
+        <v>2.064694945732015</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.42095396178596</v>
+        <v>21.0732845423397</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.32938006460495</v>
+        <v>18.89023420113518</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.00210877370274</v>
+        <v>14.18006382580607</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749674754588987</v>
+        <v>6.699493999167972</v>
       </c>
       <c r="D3">
-        <v>4.600420658625072</v>
+        <v>4.050926946780518</v>
       </c>
       <c r="E3">
-        <v>10.75119476843116</v>
+        <v>9.914731582057444</v>
       </c>
       <c r="F3">
-        <v>23.58216135031835</v>
+        <v>17.79451850573276</v>
       </c>
       <c r="G3">
-        <v>3.625106964426211</v>
+        <v>2.071303079260586</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.82613224543138</v>
+        <v>19.7563811805529</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.99886812371665</v>
+        <v>17.65110400293136</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.10102617189822</v>
+        <v>14.04519623440536</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.644144176141034</v>
+        <v>6.374724043415059</v>
       </c>
       <c r="D4">
-        <v>4.580868679788154</v>
+        <v>3.987601436056613</v>
       </c>
       <c r="E4">
-        <v>10.72424419551092</v>
+        <v>9.600052310076958</v>
       </c>
       <c r="F4">
-        <v>23.61837789450059</v>
+        <v>17.49661523523354</v>
       </c>
       <c r="G4">
-        <v>3.626663397786804</v>
+        <v>2.075469279653054</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.44688858813911</v>
+        <v>18.90359769753633</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.79515126053738</v>
+        <v>16.84954700325594</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.16912609868557</v>
+        <v>13.98661850939938</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.600812301464723</v>
+        <v>6.238095857159888</v>
       </c>
       <c r="D5">
-        <v>4.572883276019547</v>
+        <v>3.96154977097887</v>
       </c>
       <c r="E5">
-        <v>10.71452950512096</v>
+        <v>9.472979697351382</v>
       </c>
       <c r="F5">
-        <v>23.63553892435155</v>
+        <v>17.38098484062186</v>
       </c>
       <c r="G5">
-        <v>3.627317038679304</v>
+        <v>2.07719543464208</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.28901148792713</v>
+        <v>18.54497663136209</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.71205578184049</v>
+        <v>16.51260496000515</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.19871737711881</v>
+        <v>13.96856919308151</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.593599687212905</v>
+        <v>6.215149066955015</v>
       </c>
       <c r="D6">
-        <v>4.571556351914058</v>
+        <v>3.95720974036991</v>
       </c>
       <c r="E6">
-        <v>10.71299307096631</v>
+        <v>9.451954483221391</v>
       </c>
       <c r="F6">
-        <v>23.63853316263091</v>
+        <v>17.36213282393605</v>
       </c>
       <c r="G6">
-        <v>3.627426747771496</v>
+        <v>2.077483805634301</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.26260105423343</v>
+        <v>18.48475790665675</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.69825654595316</v>
+        <v>16.45603234431323</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.20374176833704</v>
+        <v>13.96591540539879</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.643561005888587</v>
+        <v>6.372898818124492</v>
       </c>
       <c r="D7">
-        <v>4.58076105246634</v>
+        <v>3.987251059491035</v>
       </c>
       <c r="E7">
-        <v>10.72410804104096</v>
+        <v>9.598333640313838</v>
       </c>
       <c r="F7">
-        <v>23.61859962637516</v>
+        <v>17.49503244705695</v>
       </c>
       <c r="G7">
-        <v>3.626672134454969</v>
+        <v>2.075492442880387</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.44477261858557</v>
+        <v>18.89880614240567</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.79403076928016</v>
+        <v>16.84504466337426</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.16951774274654</v>
+        <v>13.98635189205144</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.860947103975855</v>
+        <v>7.03153270287543</v>
       </c>
       <c r="D8">
-        <v>4.621211770492003</v>
+        <v>4.117597030394593</v>
       </c>
       <c r="E8">
-        <v>10.78427313721115</v>
+        <v>10.25405124105684</v>
       </c>
       <c r="F8">
-        <v>23.55176718608135</v>
+        <v>18.13208121192462</v>
       </c>
       <c r="G8">
-        <v>3.623512171565334</v>
+        <v>2.066951499379205</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.21887710969062</v>
+        <v>20.62838845866678</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.21565095371606</v>
+        <v>18.47139429720621</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.03468003203171</v>
+        <v>14.12837536800181</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.271389556882198</v>
+        <v>8.191211600407215</v>
       </c>
       <c r="D9">
-        <v>4.699658419989746</v>
+        <v>4.363870876903582</v>
       </c>
       <c r="E9">
-        <v>10.94172985881145</v>
+        <v>11.56619110049281</v>
       </c>
       <c r="F9">
-        <v>23.49750447914906</v>
+        <v>19.56088697899672</v>
       </c>
       <c r="G9">
-        <v>3.617922031815943</v>
+        <v>2.051015338636356</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.61847034035821</v>
+        <v>23.670123570798</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.03128845998065</v>
+        <v>21.34093706481416</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.82921036248376</v>
+        <v>14.61009886778321</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.559597191190305</v>
+        <v>8.965597831879068</v>
       </c>
       <c r="D10">
-        <v>4.756515345664814</v>
+        <v>4.538116171636563</v>
       </c>
       <c r="E10">
-        <v>11.08081171865106</v>
+        <v>12.79910356537846</v>
       </c>
       <c r="F10">
-        <v>23.50507427341135</v>
+        <v>20.71685873013401</v>
       </c>
       <c r="G10">
-        <v>3.614180539860946</v>
+        <v>2.039726342490275</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.56658189321085</v>
+        <v>25.69391788402211</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.61741912546716</v>
+        <v>23.25992990322528</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.71487107904104</v>
+        <v>15.10103968846527</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.687159479792768</v>
+        <v>9.301674439927277</v>
       </c>
       <c r="D11">
-        <v>4.782160836239849</v>
+        <v>4.615767664503986</v>
       </c>
       <c r="E11">
-        <v>11.14897195344798</v>
+        <v>13.3498075660739</v>
       </c>
       <c r="F11">
-        <v>23.51890958102457</v>
+        <v>21.26510426760452</v>
       </c>
       <c r="G11">
-        <v>3.612556930349512</v>
+        <v>2.034663200644205</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.97921297757906</v>
+        <v>26.56961655162306</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.87998785734488</v>
+        <v>24.09330076259455</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.67094584886107</v>
+        <v>15.35642774007748</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.73490781169266</v>
+        <v>9.426665204985046</v>
       </c>
       <c r="D12">
-        <v>4.791836311045429</v>
+        <v>4.644929702784824</v>
       </c>
       <c r="E12">
-        <v>11.17546637424317</v>
+        <v>13.55637973166756</v>
       </c>
       <c r="F12">
-        <v>23.52564711352601</v>
+        <v>21.4758843508905</v>
       </c>
       <c r="G12">
-        <v>3.611953319751161</v>
+        <v>2.032754628134727</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.13269627475997</v>
+        <v>26.89484335513865</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.97873698098317</v>
+        <v>24.40331949793173</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.65548641313719</v>
+        <v>15.45790315972095</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.724649805316048</v>
+        <v>9.399846441562046</v>
       </c>
       <c r="D13">
-        <v>4.789754191681585</v>
+        <v>4.638660084896981</v>
       </c>
       <c r="E13">
-        <v>11.1697302574141</v>
+        <v>13.51197568709371</v>
       </c>
       <c r="F13">
-        <v>23.5241293817981</v>
+        <v>21.43034857928911</v>
       </c>
       <c r="G13">
-        <v>3.612082820262691</v>
+        <v>2.03316531327156</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.09976537387399</v>
+        <v>26.82508233745439</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.95750128264905</v>
+        <v>24.33679648346163</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.65876349069488</v>
+        <v>15.43583437218548</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.691099171355913</v>
+        <v>9.31200275676699</v>
       </c>
       <c r="D14">
-        <v>4.782957588339332</v>
+        <v>4.618171764163207</v>
       </c>
       <c r="E14">
-        <v>11.15113808460983</v>
+        <v>13.36684090784173</v>
       </c>
       <c r="F14">
-        <v>23.51943383607117</v>
+        <v>21.28238191331007</v>
       </c>
       <c r="G14">
-        <v>3.612507046521605</v>
+        <v>2.034506016361633</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.99189612326818</v>
+        <v>26.59650054113067</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.8881261582566</v>
+        <v>24.11891683119401</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.66965039976395</v>
+        <v>15.36467984710452</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.670474634610139</v>
+        <v>9.257901485633262</v>
       </c>
       <c r="D15">
-        <v>4.778789664816379</v>
+        <v>4.605590164632776</v>
       </c>
       <c r="E15">
-        <v>11.13983825022296</v>
+        <v>13.27769010101836</v>
       </c>
       <c r="F15">
-        <v>23.51675289870268</v>
+        <v>21.19215999262747</v>
       </c>
       <c r="G15">
-        <v>3.612768356094047</v>
+        <v>2.035328320559533</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.9254598863915</v>
+        <v>26.45565916275123</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.84554061855834</v>
+        <v>23.98473923171441</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.67647216659677</v>
+        <v>15.32172057138158</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.551185220660429</v>
+        <v>8.94331314150338</v>
       </c>
       <c r="D16">
-        <v>4.754834566365903</v>
+        <v>4.533008008128793</v>
       </c>
       <c r="E16">
-        <v>11.07645406948022</v>
+        <v>12.76283009213572</v>
       </c>
       <c r="F16">
-        <v>23.50437961073033</v>
+        <v>20.68147555554702</v>
       </c>
       <c r="G16">
-        <v>3.614288219248662</v>
+        <v>2.040058546299278</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.53923207700058</v>
+        <v>25.63579128098597</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.60016954090074</v>
+        <v>23.20468151976948</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.71790540484485</v>
+        <v>15.08500828535085</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.477061903567471</v>
+        <v>8.746213204206455</v>
       </c>
       <c r="D17">
-        <v>4.740079634362246</v>
+        <v>4.488059401222201</v>
       </c>
       <c r="E17">
-        <v>11.03880928456146</v>
+        <v>12.44331487226103</v>
       </c>
       <c r="F17">
-        <v>23.49945417121977</v>
+        <v>20.37388130984465</v>
       </c>
       <c r="G17">
-        <v>3.615240646420997</v>
+        <v>2.042977761386059</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.29744587946204</v>
+        <v>25.12137298213486</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.44853127516686</v>
+        <v>22.71609157652394</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.74540293755877</v>
+        <v>14.94812038702587</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.434096921471642</v>
+        <v>8.631318660337856</v>
       </c>
       <c r="D18">
-        <v>4.731572635293838</v>
+        <v>4.462054767519353</v>
       </c>
       <c r="E18">
-        <v>11.01761869764697</v>
+        <v>12.2581463174664</v>
       </c>
       <c r="F18">
-        <v>23.49759920391264</v>
+        <v>20.19907046598084</v>
       </c>
       <c r="G18">
-        <v>3.615795841635987</v>
+        <v>2.0446637280549</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.15662375227124</v>
+        <v>24.82125801092434</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.36093564015414</v>
+        <v>22.43133259564502</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.76197946796187</v>
+        <v>14.87239545151301</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.419494354352264</v>
+        <v>8.59215331510595</v>
       </c>
       <c r="D19">
-        <v>4.728688951564412</v>
+        <v>4.453224417508402</v>
       </c>
       <c r="E19">
-        <v>11.01052379429649</v>
+        <v>12.19520837830453</v>
       </c>
       <c r="F19">
-        <v>23.49713895916605</v>
+        <v>20.14024655332397</v>
       </c>
       <c r="G19">
-        <v>3.615985091314231</v>
+        <v>2.045235802727586</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.10864557761016</v>
+        <v>24.71891460237783</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.33121547037828</v>
+        <v>22.33427280537452</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.76772230036703</v>
+        <v>14.84726809086956</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.484987094290834</v>
+        <v>8.767352572276934</v>
       </c>
       <c r="D20">
-        <v>4.741652460636362</v>
+        <v>4.492860011577188</v>
       </c>
       <c r="E20">
-        <v>11.042768988803</v>
+        <v>12.47747089785026</v>
       </c>
       <c r="F20">
-        <v>23.49987723525186</v>
+        <v>20.40640735576157</v>
       </c>
       <c r="G20">
-        <v>3.615138495115949</v>
+        <v>2.042666302236106</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.32336654452438</v>
+        <v>25.17657147022121</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.46471318949694</v>
+        <v>22.76848845062664</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.74239696976741</v>
+        <v>14.96237969220672</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.700969262897684</v>
+        <v>9.337865842516333</v>
       </c>
       <c r="D21">
-        <v>4.78495492523827</v>
+        <v>4.624196346751599</v>
       </c>
       <c r="E21">
-        <v>11.15658067015173</v>
+        <v>13.40952264682098</v>
       </c>
       <c r="F21">
-        <v>23.52077234378723</v>
+        <v>21.32575751839588</v>
       </c>
       <c r="G21">
-        <v>3.612382137094257</v>
+        <v>2.034111996473693</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.02365576343253</v>
+        <v>26.66381303790228</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.90852249641674</v>
+        <v>24.18306316340905</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.66642070063103</v>
+        <v>15.38544916830403</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.838862989602039</v>
+        <v>9.697501743680469</v>
       </c>
       <c r="D22">
-        <v>4.813044229369414</v>
+        <v>4.70861322111108</v>
       </c>
       <c r="E22">
-        <v>11.2349373507616</v>
+        <v>14.0072878632554</v>
       </c>
       <c r="F22">
-        <v>23.54316268287199</v>
+        <v>21.94508543395276</v>
       </c>
       <c r="G22">
-        <v>3.610646039975129</v>
+        <v>2.028571259197764</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.46515248181339</v>
+        <v>27.59866268139026</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.19457450505397</v>
+        <v>25.07522847158229</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.62361411251164</v>
+        <v>15.68978733422272</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.765579213415601</v>
+        <v>9.506748590586353</v>
       </c>
       <c r="D23">
-        <v>4.798073226335869</v>
+        <v>4.663691114474629</v>
       </c>
       <c r="E23">
-        <v>11.19276029255049</v>
+        <v>13.68923740605375</v>
       </c>
       <c r="F23">
-        <v>23.53041257746754</v>
+        <v>21.61285770974725</v>
       </c>
       <c r="G23">
-        <v>3.611566668840496</v>
+        <v>2.03152447096625</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.23102307020686</v>
+        <v>27.10308509353092</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.04229930412242</v>
+        <v>24.60197507050699</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.64583066056408</v>
+        <v>15.52476205368914</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.481405203705764</v>
+        <v>8.757800386814239</v>
       </c>
       <c r="D24">
-        <v>4.740941460869917</v>
+        <v>4.490690162741005</v>
       </c>
       <c r="E24">
-        <v>11.04097739741174</v>
+        <v>12.46203356354429</v>
       </c>
       <c r="F24">
-        <v>23.49968292579795</v>
+        <v>20.39169600597461</v>
       </c>
       <c r="G24">
-        <v>3.615184653941297</v>
+        <v>2.042807088900483</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.31165346167035</v>
+        <v>25.15162984827048</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.45739863687119</v>
+        <v>22.74481186329014</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.74375357680246</v>
+        <v>14.95592380977734</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.162455552130699</v>
+        <v>7.891329321437465</v>
       </c>
       <c r="D25">
-        <v>4.678555562725144</v>
+        <v>4.298358671925667</v>
       </c>
       <c r="E25">
-        <v>10.89496671653174</v>
+        <v>11.20905739467062</v>
       </c>
       <c r="F25">
-        <v>23.50389081328594</v>
+        <v>19.15544208840319</v>
       </c>
       <c r="G25">
-        <v>3.619369811960744</v>
+        <v>2.055246995419275</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.25342701575302</v>
+        <v>22.88453574312034</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.81250386157653</v>
+        <v>20.59834049866343</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.87841275529016</v>
+        <v>14.45657173034003</v>
       </c>
     </row>
   </sheetData>
